--- a/bench.xlsx
+++ b/bench.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regis.cridlig/SynologyDrive/Development/Bench/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regis.cridlig/Development/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F964F5-667C-BD40-8191-41E43E6CABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D73E2A-AA74-6342-9383-5EE62B70269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="760" windowWidth="27000" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>Langage</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>33s on i9</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -412,17 +415,20 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -433,11 +439,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -448,11 +456,13 @@
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -463,11 +473,18 @@
       <sz val="12"/>
       <color indexed="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -512,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -574,6 +591,7 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2007,7 +2025,9 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="35" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regis.cridlig/Development/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D73E2A-AA74-6342-9383-5EE62B70269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4D2CB-1BBC-D54F-B5E8-C455673EC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="760" windowWidth="27000" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="760" windowWidth="31520" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bench" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="128">
   <si>
     <t>Langage</t>
   </si>
@@ -131,9 +131,6 @@
     <t>2121 MB</t>
   </si>
   <si>
-    <t>pub upgrade</t>
-  </si>
-  <si>
     <t>F#</t>
   </si>
   <si>
@@ -386,16 +383,40 @@
     <t>MacBook Pro M1 Pro</t>
   </si>
   <si>
-    <t>1625 MB</t>
-  </si>
-  <si>
-    <t>13.52</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>33s on i9</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>v21.5.0</t>
+  </si>
+  <si>
+    <t>5.4.6</t>
+  </si>
+  <si>
+    <t>2.6.10p210</t>
+  </si>
+  <si>
+    <t>2298 MB</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>2963 MB</t>
+  </si>
+  <si>
+    <t>7.0.201</t>
+  </si>
+  <si>
+    <t>3022 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.4 </t>
+  </si>
+  <si>
+    <t>dart pub upgrade</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -478,12 +499,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -529,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -580,18 +595,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1766,18 +1779,18 @@
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="1" customWidth="1"/>
-    <col min="19" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" customHeight="1">
+    <row r="1" spans="1:21" ht="16.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1795,11 +1808,12 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1817,31 +1831,31 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1856,9 +1870,9 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1867,11 +1881,12 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1886,9 +1901,9 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1897,11 +1912,12 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1916,9 +1932,9 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1927,11 +1943,12 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1946,9 +1963,9 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1957,11 +1974,12 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1976,9 +1994,9 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1987,11 +2005,12 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2010,26 +2029,32 @@
       <c r="F8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="16">
+        <f>10.87+11.68</f>
+        <v>22.549999999999997</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1">
+      <c r="T8" s="3"/>
+      <c r="U8" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2044,9 +2069,9 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2055,11 +2080,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -2074,9 +2100,9 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2085,11 +2111,12 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2108,29 +2135,32 @@
       <c r="F11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -2142,9 +2172,9 @@
         <v>107.98</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2153,28 +2183,29 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2183,28 +2214,29 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2213,28 +2245,29 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2243,28 +2276,29 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D16" s="11">
         <v>58</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2273,28 +2307,29 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="11">
         <v>53</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2303,28 +2338,29 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2333,28 +2369,29 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2363,30 +2400,33 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="22">
         <v>100.99</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2395,32 +2435,35 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="16">
         <v>75.13</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2429,33 +2472,34 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="16">
         <f>52.428+56.151</f>
         <v>108.57900000000001</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2464,100 +2508,103 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="E23" s="16">
         <v>34.49</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="16">
         <v>32.340000000000003</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="8"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2566,28 +2613,29 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2596,32 +2644,33 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="E27" s="16">
         <v>41.92</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2630,28 +2679,29 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2660,180 +2710,195 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="E29" s="16">
         <v>36</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="25">
+      <c r="L29" s="2"/>
+      <c r="M29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="25">
         <v>30.78</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="O29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>30.55</v>
+      </c>
+      <c r="R29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="25">
-        <v>2.7</v>
-      </c>
-      <c r="P29" s="25">
-        <v>30.55</v>
-      </c>
-      <c r="Q29" s="8" t="s">
+      <c r="S29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T29" s="26">
+        <v>30.95</v>
+      </c>
+      <c r="U29" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S29" s="26">
-        <v>30.95</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:21" ht="16.5" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="E30" s="16">
         <v>41.77</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="8" t="s">
+      <c r="K30" s="25">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="25">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="8" t="s">
+      <c r="N30" s="25">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="25">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="8" t="s">
+      <c r="Q30" s="25">
+        <v>24.23</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="P30" s="25">
-        <v>24.23</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S30" s="26">
+      <c r="T30" s="26">
         <v>37.25</v>
       </c>
-      <c r="T30" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U30" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="G31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="27">
+        <v>10.71</v>
+      </c>
+      <c r="L31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="27">
-        <v>10.71</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>20.03</v>
+      </c>
+      <c r="R31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="25">
-        <v>20.03</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A32" s="2"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="E32" s="16">
         <v>42.7</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="16">
+        <f>10.31+4.83</f>
+        <v>15.14</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2842,26 +2907,27 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2870,33 +2936,34 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <f>120+25.611+21.357</f>
         <v>166.96799999999999</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2905,32 +2972,35 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" ht="16.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="E35" s="22">
         <v>102.4</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="2"/>
+      <c r="F35" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2939,18 +3009,19 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="2"/>
       <c r="D36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2961,20 +3032,21 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="16.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2985,20 +3057,21 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" ht="16.5" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3009,20 +3082,21 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" ht="16.5" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="32"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3033,11 +3107,12 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3055,11 +3130,12 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="3"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3077,11 +3153,12 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="3"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3099,11 +3176,12 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="3"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3121,11 +3199,12 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="3"/>
+      <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3143,11 +3222,12 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="3"/>
+      <c r="R44" s="2"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3165,11 +3245,12 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="3"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3187,11 +3268,12 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="3"/>
+      <c r="R46" s="2"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" ht="16.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3209,11 +3291,12 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="3"/>
+      <c r="R47" s="2"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" ht="16.5" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3231,11 +3314,12 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="3"/>
+      <c r="R48" s="2"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" ht="16.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3253,11 +3337,12 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="3"/>
+      <c r="R49" s="2"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" ht="16.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3275,11 +3360,12 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="2"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="1:21" ht="16.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3297,11 +3383,12 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="3"/>
+      <c r="R51" s="2"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" ht="16.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3319,11 +3406,12 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="3"/>
+      <c r="R52" s="2"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21" ht="16.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3341,11 +3429,12 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="3"/>
+      <c r="R53" s="2"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" ht="16.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3363,11 +3452,12 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="3"/>
+      <c r="R54" s="2"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" ht="16.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3385,11 +3475,12 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="3"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" ht="16.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3407,11 +3498,12 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="3"/>
+      <c r="R56" s="2"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="1:21" ht="16.5" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3429,11 +3521,12 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="3"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.5" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3451,11 +3544,12 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="3"/>
+      <c r="R58" s="2"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3473,11 +3567,12 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="3"/>
+      <c r="R59" s="2"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.5" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3495,9 +3590,10 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="3"/>
+      <c r="R60" s="2"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regis.cridlig/Development/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4D2CB-1BBC-D54F-B5E8-C455673EC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09EF41C-0B08-9E4A-9AB7-A08955B59532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="760" windowWidth="31520" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,13 +410,13 @@
     <t>7.0.201</t>
   </si>
   <si>
-    <t>3022 MB</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>dart pub upgrade</t>
+  </si>
+  <si>
+    <t>3194 MB</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2033,11 +2033,11 @@
         <v>124</v>
       </c>
       <c r="H8" s="16">
-        <f>10.87+11.68</f>
-        <v>22.549999999999997</v>
+        <f>10.77+11.4</f>
+        <v>22.17</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -2136,12 +2136,12 @@
         <v>31</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>

--- a/bench.xlsx
+++ b/bench.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regis.cridlig/Development/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09EF41C-0B08-9E4A-9AB7-A08955B59532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16959D-4281-6A40-AAFB-924FD2F09E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="760" windowWidth="31520" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="760" windowWidth="31520" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bench" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>Langage</t>
   </si>
@@ -155,15 +155,9 @@
     <t>Java</t>
   </si>
   <si>
-    <t>java</t>
-  </si>
-  <si>
     <t>1.8.0_77</t>
   </si>
   <si>
-    <t>real time time in s</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>ocamlopt</t>
   </si>
   <si>
-    <t>ocamlopt unix.cmxa bench.ml</t>
-  </si>
-  <si>
     <t>Pascal</t>
   </si>
   <si>
@@ -417,6 +408,42 @@
   </si>
   <si>
     <t>3194 MB</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>2671 MB</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>5.1.0</t>
+  </si>
+  <si>
+    <t>ocamlopt unix.cmxa bench.ml -o benchopt</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>3927 MB</t>
+  </si>
+  <si>
+    <t>10.41</t>
+  </si>
+  <si>
+    <t>3702 MB</t>
+  </si>
+  <si>
+    <t>17.0.9</t>
+  </si>
+  <si>
+    <t>java -Xmx8192m Bench</t>
+  </si>
+  <si>
+    <t>3405 MB</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1795,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1831,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
@@ -1932,7 +1959,9 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="2"/>
@@ -1994,7 +2023,9 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
@@ -2030,14 +2061,14 @@
         <v>23</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H8" s="16">
         <f>10.77+11.4</f>
         <v>22.17</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -2051,7 +2082,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1">
@@ -2136,12 +2167,12 @@
         <v>31</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2172,7 +2203,9 @@
         <v>107.98</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
@@ -2258,16 +2291,22 @@
         <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="13">
+        <v>27.324000000000002</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2283,13 +2322,13 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="11">
         <v>58</v>
@@ -2314,13 +2353,13 @@
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="11">
         <v>53</v>
@@ -2345,16 +2384,16 @@
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="13"/>
@@ -2376,16 +2415,16 @@
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="13"/>
@@ -2408,22 +2447,22 @@
     <row r="20" spans="1:21" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="22">
         <v>100.99</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -2445,22 +2484,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="16">
         <v>75.13</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2482,24 +2521,30 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="16">
         <f>52.428+56.151</f>
         <v>108.57900000000001</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2518,25 +2563,31 @@
         <v>9</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="E23" s="16">
         <v>34.49</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="J23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2555,25 +2606,31 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="16">
         <v>32.340000000000003</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="J24" s="8" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2592,13 +2649,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="13"/>
@@ -2623,13 +2680,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D26" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="13"/>
@@ -2654,19 +2711,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="16">
         <v>41.92</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="24"/>
@@ -2686,16 +2743,16 @@
     </row>
     <row r="28" spans="1:21" ht="16.5" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="13"/>
@@ -2720,19 +2777,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" s="16">
         <v>36</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="24"/>
@@ -2741,13 +2798,13 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N29" s="25">
         <v>30.78</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P29" s="25">
         <v>2.7</v>
@@ -2756,16 +2813,16 @@
         <v>30.55</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T29" s="26">
         <v>30.95</v>
       </c>
       <c r="U29" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16.5" customHeight="1">
@@ -2773,52 +2830,52 @@
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="16">
         <v>41.77</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K30" s="25">
         <v>40.380000000000003</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N30" s="25">
         <v>33.299999999999997</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="25">
         <v>24.23</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T30" s="26">
         <v>37.25</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="16.5" customHeight="1">
@@ -2826,45 +2883,45 @@
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K31" s="27">
         <v>10.71</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="25">
         <v>20.03</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -2875,29 +2932,29 @@
         <v>9</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E32" s="16">
         <v>42.7</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H32" s="16">
         <f>10.31+4.83</f>
         <v>15.14</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2915,13 +2972,13 @@
     <row r="33" spans="1:21" ht="16.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="13"/>
@@ -2946,20 +3003,20 @@
         <v>9</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" s="28">
         <f>120+25.611+21.357</f>
         <v>166.96799999999999</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="24"/>
@@ -2982,22 +3039,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E35" s="22">
         <v>102.4</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -3041,7 +3098,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3066,7 +3123,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3091,7 +3148,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="31"/>
